--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H2">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I2">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J2">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N2">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O2">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P2">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q2">
-        <v>1.447045361269444</v>
+        <v>0.3858638948284444</v>
       </c>
       <c r="R2">
-        <v>13.023408251425</v>
+        <v>3.472775053456</v>
       </c>
       <c r="S2">
-        <v>0.003465239299013151</v>
+        <v>0.001013041167964797</v>
       </c>
       <c r="T2">
-        <v>0.003465239299013152</v>
+        <v>0.001013041167964797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H3">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I3">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J3">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P3">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q3">
-        <v>71.67161273693056</v>
+        <v>19.82835008223111</v>
       </c>
       <c r="R3">
-        <v>645.044514632375</v>
+        <v>178.45515074008</v>
       </c>
       <c r="S3">
-        <v>0.1716319997472546</v>
+        <v>0.05205704704517368</v>
       </c>
       <c r="T3">
-        <v>0.1716319997472547</v>
+        <v>0.05205704704517369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.288808333333333</v>
+        <v>1.186522666666667</v>
       </c>
       <c r="H4">
-        <v>12.866425</v>
+        <v>3.559568</v>
       </c>
       <c r="I4">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898657</v>
       </c>
       <c r="J4">
-        <v>0.1993390083529519</v>
+        <v>0.06400371352898658</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N4">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P4">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q4">
-        <v>10.12309303839167</v>
+        <v>4.164580258316445</v>
       </c>
       <c r="R4">
-        <v>91.10783734552501</v>
+        <v>37.48122232484801</v>
       </c>
       <c r="S4">
-        <v>0.02424176930668412</v>
+        <v>0.01093362531584809</v>
       </c>
       <c r="T4">
-        <v>0.02424176930668413</v>
+        <v>0.0109336253158481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>33.315578</v>
       </c>
       <c r="I5">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J5">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N5">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O5">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P5">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q5">
-        <v>3.746895707464222</v>
+        <v>3.611471584625111</v>
       </c>
       <c r="R5">
-        <v>33.722061367178</v>
+        <v>32.503244261626</v>
       </c>
       <c r="S5">
-        <v>0.008972690561281629</v>
+        <v>0.009481502263348334</v>
       </c>
       <c r="T5">
-        <v>0.008972690561281631</v>
+        <v>0.009481502263348334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.315578</v>
       </c>
       <c r="I6">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J6">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P6">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q6">
         <v>185.5823357710478</v>
@@ -818,10 +818,10 @@
         <v>1670.24102193943</v>
       </c>
       <c r="S6">
-        <v>0.4444139902790125</v>
+        <v>0.4872250259815668</v>
       </c>
       <c r="T6">
-        <v>0.4444139902790126</v>
+        <v>0.4872250259815668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.315578</v>
       </c>
       <c r="I7">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="J7">
-        <v>0.5161569185865866</v>
+        <v>0.599039184070822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N7">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P7">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q7">
-        <v>26.21215261595934</v>
+        <v>38.97815645977312</v>
       </c>
       <c r="R7">
-        <v>235.909373543634</v>
+        <v>350.8034081379581</v>
       </c>
       <c r="S7">
-        <v>0.06277023774629245</v>
+        <v>0.1023326558259069</v>
       </c>
       <c r="T7">
-        <v>0.06277023774629246</v>
+        <v>0.1023326558259069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H8">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I8">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J8">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3374003333333333</v>
+        <v>0.3252056666666667</v>
       </c>
       <c r="N8">
-        <v>1.012201</v>
+        <v>0.975617</v>
       </c>
       <c r="O8">
-        <v>0.01738364872808817</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="P8">
-        <v>0.01738364872808818</v>
+        <v>0.0158278498560244</v>
       </c>
       <c r="Q8">
-        <v>2.065277150649111</v>
+        <v>2.031438064345445</v>
       </c>
       <c r="R8">
-        <v>18.587494355842</v>
+        <v>18.282942579109</v>
       </c>
       <c r="S8">
-        <v>0.004945718867793396</v>
+        <v>0.005333306424711267</v>
       </c>
       <c r="T8">
-        <v>0.004945718867793398</v>
+        <v>0.005333306424711268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H9">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I9">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J9">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.133935</v>
       </c>
       <c r="O9">
-        <v>0.8610055862391021</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="P9">
-        <v>0.8610055862391023</v>
+        <v>0.8133441666880411</v>
       </c>
       <c r="Q9">
-        <v>102.2924008449189</v>
+        <v>104.3893083806661</v>
       </c>
       <c r="R9">
-        <v>920.63160760427</v>
+        <v>939.5037754259951</v>
       </c>
       <c r="S9">
-        <v>0.244959596212835</v>
+        <v>0.2740620936613006</v>
       </c>
       <c r="T9">
-        <v>0.244959596212835</v>
+        <v>0.2740620936613006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.121147333333333</v>
+        <v>6.246625666666667</v>
       </c>
       <c r="H10">
-        <v>18.363442</v>
+        <v>18.739877</v>
       </c>
       <c r="I10">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001913</v>
       </c>
       <c r="J10">
-        <v>0.2845040730604615</v>
+        <v>0.3369571024001914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.360351</v>
+        <v>3.509903666666667</v>
       </c>
       <c r="N10">
-        <v>7.081053000000001</v>
+        <v>10.529711</v>
       </c>
       <c r="O10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="P10">
-        <v>0.1216107650328097</v>
+        <v>0.1708279834559346</v>
       </c>
       <c r="Q10">
-        <v>14.44805622938067</v>
+        <v>21.92505433172744</v>
       </c>
       <c r="R10">
-        <v>130.032506064426</v>
+        <v>197.325488985547</v>
       </c>
       <c r="S10">
-        <v>0.03459875797983309</v>
+        <v>0.05756170231417954</v>
       </c>
       <c r="T10">
-        <v>0.0345987579798331</v>
+        <v>0.05756170231417955</v>
       </c>
     </row>
   </sheetData>
